--- a/doc/permissions-matrix.xlsx
+++ b/doc/permissions-matrix.xlsx
@@ -992,7 +992,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="11"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="11"/>
       <c r="O10" s="13"/>
@@ -1013,7 +1013,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
-      <c r="L11" s="11"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="11"/>
